--- a/Code/Results/Cases/Case_2_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_94/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9985713361086442</v>
+        <v>1.026678170106423</v>
       </c>
       <c r="D2">
-        <v>1.021925480008397</v>
+        <v>1.037683182034894</v>
       </c>
       <c r="E2">
-        <v>1.01970573343632</v>
+        <v>1.047264022031575</v>
       </c>
       <c r="F2">
-        <v>1.026195002659236</v>
+        <v>1.051086584224076</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047644004352785</v>
+        <v>1.033697897942123</v>
       </c>
       <c r="J2">
-        <v>1.020794862396175</v>
+        <v>1.031840273906417</v>
       </c>
       <c r="K2">
-        <v>1.033087580519398</v>
+        <v>1.040473367139956</v>
       </c>
       <c r="L2">
-        <v>1.030897196218199</v>
+        <v>1.050027146429824</v>
       </c>
       <c r="M2">
-        <v>1.037301074358326</v>
+        <v>1.053839061221582</v>
       </c>
       <c r="N2">
-        <v>1.010930218177882</v>
+        <v>1.014649001050638</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002712531340408</v>
+        <v>1.027546023956109</v>
       </c>
       <c r="D3">
-        <v>1.02518983615692</v>
+        <v>1.038378760310587</v>
       </c>
       <c r="E3">
-        <v>1.023673291421519</v>
+        <v>1.048179154123589</v>
       </c>
       <c r="F3">
-        <v>1.030172156057291</v>
+        <v>1.051982591987258</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048806668755623</v>
+        <v>1.033851872131018</v>
       </c>
       <c r="J3">
-        <v>1.023129522165146</v>
+        <v>1.032348409877175</v>
       </c>
       <c r="K3">
-        <v>1.035510242454878</v>
+        <v>1.040979105975721</v>
       </c>
       <c r="L3">
-        <v>1.034011969855309</v>
+        <v>1.05075381958331</v>
       </c>
       <c r="M3">
-        <v>1.040433002119262</v>
+        <v>1.054547430280392</v>
       </c>
       <c r="N3">
-        <v>1.011704801101334</v>
+        <v>1.014817150790023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005338066828604</v>
+        <v>1.028107824699541</v>
       </c>
       <c r="D4">
-        <v>1.027259252373581</v>
+        <v>1.038828653967148</v>
       </c>
       <c r="E4">
-        <v>1.026197615171069</v>
+        <v>1.048772324273933</v>
       </c>
       <c r="F4">
-        <v>1.0326990278355</v>
+        <v>1.052562951437551</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049528566351155</v>
+        <v>1.033949646427925</v>
       </c>
       <c r="J4">
-        <v>1.024606203004877</v>
+        <v>1.032676816263043</v>
       </c>
       <c r="K4">
-        <v>1.037039447991785</v>
+        <v>1.041305486273215</v>
       </c>
       <c r="L4">
-        <v>1.03598981440602</v>
+        <v>1.051224412464149</v>
       </c>
       <c r="M4">
-        <v>1.042418194053446</v>
+        <v>1.055005739320718</v>
       </c>
       <c r="N4">
-        <v>1.012194703948413</v>
+        <v>1.014925807538744</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00642931485795</v>
+        <v>1.028344062202341</v>
       </c>
       <c r="D5">
-        <v>1.028119262038544</v>
+        <v>1.039017741621627</v>
       </c>
       <c r="E5">
-        <v>1.027248896952107</v>
+        <v>1.049021935249726</v>
       </c>
       <c r="F5">
-        <v>1.033750514803504</v>
+        <v>1.052807072344395</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049824897573222</v>
+        <v>1.033990305255696</v>
       </c>
       <c r="J5">
-        <v>1.025219082842192</v>
+        <v>1.032814783458466</v>
       </c>
       <c r="K5">
-        <v>1.03767335757143</v>
+        <v>1.041442487776241</v>
       </c>
       <c r="L5">
-        <v>1.036812566253376</v>
+        <v>1.051422340939166</v>
       </c>
       <c r="M5">
-        <v>1.043243146114858</v>
+        <v>1.055198398273949</v>
       </c>
       <c r="N5">
-        <v>1.012398025278068</v>
+        <v>1.014971451159847</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006611817541531</v>
+        <v>1.028383730792455</v>
       </c>
       <c r="D6">
-        <v>1.028263084617904</v>
+        <v>1.039049487428473</v>
       </c>
       <c r="E6">
-        <v>1.027424838241285</v>
+        <v>1.049063860190121</v>
       </c>
       <c r="F6">
-        <v>1.03392644004989</v>
+        <v>1.052848069350773</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049874236971924</v>
+        <v>1.033997105903552</v>
       </c>
       <c r="J6">
-        <v>1.025321530102847</v>
+        <v>1.032837943163376</v>
       </c>
       <c r="K6">
-        <v>1.037779274322457</v>
+        <v>1.041465478650295</v>
       </c>
       <c r="L6">
-        <v>1.036950205445443</v>
+        <v>1.051455579311017</v>
       </c>
       <c r="M6">
-        <v>1.043381102892895</v>
+        <v>1.055230745686824</v>
       </c>
       <c r="N6">
-        <v>1.012432011415436</v>
+        <v>1.014979112821131</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005352696814678</v>
+        <v>1.028110981096348</v>
       </c>
       <c r="D7">
-        <v>1.027270782685246</v>
+        <v>1.038831180754948</v>
       </c>
       <c r="E7">
-        <v>1.026211701084222</v>
+        <v>1.048775658638148</v>
       </c>
       <c r="F7">
-        <v>1.032713119879862</v>
+        <v>1.052566212853716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049532553889036</v>
+        <v>1.0339501914647</v>
       </c>
       <c r="J7">
-        <v>1.024614423154765</v>
+        <v>1.032678660161553</v>
       </c>
       <c r="K7">
-        <v>1.037047953266238</v>
+        <v>1.041307317716017</v>
       </c>
       <c r="L7">
-        <v>1.03600084202218</v>
+        <v>1.051227056837374</v>
       </c>
       <c r="M7">
-        <v>1.04242925454819</v>
+        <v>1.055008313696584</v>
       </c>
       <c r="N7">
-        <v>1.012197430993552</v>
+        <v>1.014926417571724</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9999823345044502</v>
+        <v>1.026971414646228</v>
       </c>
       <c r="D8">
-        <v>1.023037729631684</v>
+        <v>1.03791829472082</v>
       </c>
       <c r="E8">
-        <v>1.021055690513559</v>
+        <v>1.047573083368782</v>
       </c>
       <c r="F8">
-        <v>1.027548967067504</v>
+        <v>1.051389272632291</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048043311582725</v>
+        <v>1.033750318299588</v>
       </c>
       <c r="J8">
-        <v>1.021591049212655</v>
+        <v>1.032012081248352</v>
       </c>
       <c r="K8">
-        <v>1.03391442681542</v>
+        <v>1.040644462579458</v>
       </c>
       <c r="L8">
-        <v>1.031957806787105</v>
+        <v>1.050272648124637</v>
       </c>
       <c r="M8">
-        <v>1.03836826529904</v>
+        <v>1.054078467985657</v>
       </c>
       <c r="N8">
-        <v>1.011194377406368</v>
+        <v>1.014705858321318</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9900846814084421</v>
+        <v>1.02496525758099</v>
       </c>
       <c r="D9">
-        <v>1.015237026306269</v>
+        <v>1.036308275948851</v>
       </c>
       <c r="E9">
-        <v>1.011625169960306</v>
+        <v>1.045461862394896</v>
       </c>
       <c r="F9">
-        <v>1.018075551621969</v>
+        <v>1.049319888057039</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045179912489599</v>
+        <v>1.033383928597092</v>
       </c>
       <c r="J9">
-        <v>1.01599250018685</v>
+        <v>1.030834533788935</v>
       </c>
       <c r="K9">
-        <v>1.0280876375521</v>
+        <v>1.039469848418608</v>
       </c>
       <c r="L9">
-        <v>1.024532411135301</v>
+        <v>1.048593880181202</v>
       </c>
       <c r="M9">
-        <v>1.030882018146731</v>
+        <v>1.052439618222598</v>
       </c>
       <c r="N9">
-        <v>1.009336856661645</v>
+        <v>1.014316093323765</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9831643741250489</v>
+        <v>1.023629175391414</v>
       </c>
       <c r="D10">
-        <v>1.009787069716557</v>
+        <v>1.035234089147519</v>
       </c>
       <c r="E10">
-        <v>1.005082554854821</v>
+        <v>1.044059766693781</v>
       </c>
       <c r="F10">
-        <v>1.011484366956124</v>
+        <v>1.047943444690054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043101012615008</v>
+        <v>1.033130179114347</v>
       </c>
       <c r="J10">
-        <v>1.012062252101178</v>
+        <v>1.030047583420762</v>
       </c>
       <c r="K10">
-        <v>1.023981835782895</v>
+        <v>1.038682426464901</v>
       </c>
       <c r="L10">
-        <v>1.019360644595171</v>
+        <v>1.047476813686427</v>
       </c>
       <c r="M10">
-        <v>1.025649317983175</v>
+        <v>1.051346906536454</v>
       </c>
       <c r="N10">
-        <v>1.008032890965055</v>
+        <v>1.014055525831848</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9800842695690776</v>
+        <v>1.023050974127403</v>
       </c>
       <c r="D11">
-        <v>1.007363228051145</v>
+        <v>1.034768775397666</v>
       </c>
       <c r="E11">
-        <v>1.002183231171271</v>
+        <v>1.043453940477636</v>
       </c>
       <c r="F11">
-        <v>1.008559080230241</v>
+        <v>1.047348196089476</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042158293530382</v>
+        <v>1.033018062138571</v>
       </c>
       <c r="J11">
-        <v>1.010309695309759</v>
+        <v>1.029706383559772</v>
       </c>
       <c r="K11">
-        <v>1.022147607883942</v>
+        <v>1.038340449316829</v>
       </c>
       <c r="L11">
-        <v>1.017064092064051</v>
+        <v>1.046993629222583</v>
       </c>
       <c r="M11">
-        <v>1.023321369986432</v>
+        <v>1.050873733598668</v>
       </c>
       <c r="N11">
-        <v>1.00745146640521</v>
+        <v>1.013942530264184</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9789269670798847</v>
+        <v>1.022836255385384</v>
       </c>
       <c r="D12">
-        <v>1.006452857193671</v>
+        <v>1.034595911161725</v>
       </c>
       <c r="E12">
-        <v>1.001095810225779</v>
+        <v>1.043229105075953</v>
       </c>
       <c r="F12">
-        <v>1.007461256163096</v>
+        <v>1.047127210114748</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.0418015303206</v>
+        <v>1.03297608087865</v>
       </c>
       <c r="J12">
-        <v>1.009650749072082</v>
+        <v>1.029579580910678</v>
       </c>
       <c r="K12">
-        <v>1.02145746611461</v>
+        <v>1.038213272050876</v>
       </c>
       <c r="L12">
-        <v>1.016202046310996</v>
+        <v>1.046814231348283</v>
       </c>
       <c r="M12">
-        <v>1.022446892861798</v>
+        <v>1.050697974257687</v>
       </c>
       <c r="N12">
-        <v>1.007232862930266</v>
+        <v>1.013900533796892</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9791758214589035</v>
+        <v>1.022882310959467</v>
       </c>
       <c r="D13">
-        <v>1.006648596853257</v>
+        <v>1.03463299227737</v>
       </c>
       <c r="E13">
-        <v>1.001329548768088</v>
+        <v>1.043277324164379</v>
       </c>
       <c r="F13">
-        <v>1.007697260880335</v>
+        <v>1.047174607087836</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0418783591192</v>
+        <v>1.032985101194718</v>
       </c>
       <c r="J13">
-        <v>1.009792461688421</v>
+        <v>1.029606783471403</v>
       </c>
       <c r="K13">
-        <v>1.021605909320345</v>
+        <v>1.038240558852024</v>
       </c>
       <c r="L13">
-        <v>1.016387372513787</v>
+        <v>1.046852709234628</v>
       </c>
       <c r="M13">
-        <v>1.022634920752325</v>
+        <v>1.050735675294018</v>
       </c>
       <c r="N13">
-        <v>1.0072798753163</v>
+        <v>1.013909543301635</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9799888801277251</v>
+        <v>1.023033224362856</v>
       </c>
       <c r="D14">
-        <v>1.007288184114932</v>
+        <v>1.034754486906871</v>
       </c>
       <c r="E14">
-        <v>1.002093561578131</v>
+        <v>1.043435351517537</v>
       </c>
       <c r="F14">
-        <v>1.008468566312315</v>
+        <v>1.047329926947091</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042128939142939</v>
+        <v>1.033014598804813</v>
       </c>
       <c r="J14">
-        <v>1.010255391249459</v>
+        <v>1.029695903350063</v>
       </c>
       <c r="K14">
-        <v>1.022090742776736</v>
+        <v>1.038329939892301</v>
       </c>
       <c r="L14">
-        <v>1.016993021285002</v>
+        <v>1.04697879853239</v>
       </c>
       <c r="M14">
-        <v>1.023249287430314</v>
+        <v>1.050859205306266</v>
       </c>
       <c r="N14">
-        <v>1.007433451035439</v>
+        <v>1.013939059328517</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9804880608756766</v>
+        <v>1.023126213878998</v>
       </c>
       <c r="D15">
-        <v>1.007680909926001</v>
+        <v>1.034829340362161</v>
       </c>
       <c r="E15">
-        <v>1.002562889936586</v>
+        <v>1.043532743328</v>
       </c>
       <c r="F15">
-        <v>1.008942286709356</v>
+        <v>1.047425640039061</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042282449485944</v>
+        <v>1.033032728752817</v>
       </c>
       <c r="J15">
-        <v>1.010539550763851</v>
+        <v>1.029750804357058</v>
       </c>
       <c r="K15">
-        <v>1.022388283850627</v>
+        <v>1.038384990433302</v>
       </c>
       <c r="L15">
-        <v>1.01736497540558</v>
+        <v>1.047056496731763</v>
       </c>
       <c r="M15">
-        <v>1.023626510420841</v>
+        <v>1.050935316021185</v>
       </c>
       <c r="N15">
-        <v>1.007527721246569</v>
+        <v>1.013957241840914</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9833669745735586</v>
+        <v>1.023667555784402</v>
       </c>
       <c r="D16">
-        <v>1.009946547591168</v>
+        <v>1.035264966755047</v>
       </c>
       <c r="E16">
-        <v>1.005273532485014</v>
+        <v>1.0441000007057</v>
       </c>
       <c r="F16">
-        <v>1.011676962226402</v>
+        <v>1.047982965538679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043162664368172</v>
+        <v>1.033137572783692</v>
       </c>
       <c r="J16">
-        <v>1.012177465566638</v>
+        <v>1.030070218442661</v>
       </c>
       <c r="K16">
-        <v>1.024102349531423</v>
+        <v>1.038705101015789</v>
       </c>
       <c r="L16">
-        <v>1.019511820134408</v>
+        <v>1.047508891962862</v>
       </c>
       <c r="M16">
-        <v>1.025802470153685</v>
+        <v>1.051378309130868</v>
       </c>
       <c r="N16">
-        <v>1.008071114816422</v>
+        <v>1.014063021465512</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.985150016073291</v>
+        <v>1.024007214764158</v>
       </c>
       <c r="D17">
-        <v>1.011350294786802</v>
+        <v>1.035538175625496</v>
       </c>
       <c r="E17">
-        <v>1.006955733425432</v>
+        <v>1.04445617286385</v>
       </c>
       <c r="F17">
-        <v>1.013372905498444</v>
+        <v>1.048332765833838</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043703270493794</v>
+        <v>1.033202739038348</v>
       </c>
       <c r="J17">
-        <v>1.01319106588725</v>
+        <v>1.030270460021531</v>
       </c>
       <c r="K17">
-        <v>1.025162196577949</v>
+        <v>1.038905626200298</v>
       </c>
       <c r="L17">
-        <v>1.020842892787101</v>
+        <v>1.047792805737626</v>
       </c>
       <c r="M17">
-        <v>1.027150452843844</v>
+        <v>1.051656182217829</v>
       </c>
       <c r="N17">
-        <v>1.00840739647471</v>
+        <v>1.014129329483945</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9861820179510168</v>
+        <v>1.024205363970264</v>
       </c>
       <c r="D18">
-        <v>1.01216293509654</v>
+        <v>1.035697515897386</v>
       </c>
       <c r="E18">
-        <v>1.007930569727355</v>
+        <v>1.044664046466036</v>
       </c>
       <c r="F18">
-        <v>1.014355282909047</v>
+        <v>1.048536871693628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044014506720782</v>
+        <v>1.033240533061429</v>
       </c>
       <c r="J18">
-        <v>1.013777411337603</v>
+        <v>1.030387214525047</v>
       </c>
       <c r="K18">
-        <v>1.025774971989914</v>
+        <v>1.039022490818122</v>
       </c>
       <c r="L18">
-        <v>1.021613801073504</v>
+        <v>1.047958457218602</v>
       </c>
       <c r="M18">
-        <v>1.027930742210114</v>
+        <v>1.051818258713911</v>
       </c>
       <c r="N18">
-        <v>1.008601931027037</v>
+        <v>1.014167989582546</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9865325635754263</v>
+        <v>1.024272933098003</v>
       </c>
       <c r="D19">
-        <v>1.012438995514491</v>
+        <v>1.035751843737049</v>
       </c>
       <c r="E19">
-        <v>1.008261899631178</v>
+        <v>1.044734947047055</v>
       </c>
       <c r="F19">
-        <v>1.014689104173466</v>
+        <v>1.048606478895404</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044119942438722</v>
+        <v>1.033253383126029</v>
       </c>
       <c r="J19">
-        <v>1.01397652402092</v>
+        <v>1.030427017464288</v>
       </c>
       <c r="K19">
-        <v>1.025983004455105</v>
+        <v>1.039062321916111</v>
       </c>
       <c r="L19">
-        <v>1.021875743001709</v>
+        <v>1.048014948428176</v>
       </c>
       <c r="M19">
-        <v>1.028195801535405</v>
+        <v>1.051873522199304</v>
       </c>
       <c r="N19">
-        <v>1.008667992016307</v>
+        <v>1.014181168909906</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9849595463613257</v>
+        <v>1.023970769264967</v>
       </c>
       <c r="D20">
-        <v>1.011200324328297</v>
+        <v>1.035508864732853</v>
       </c>
       <c r="E20">
-        <v>1.006775910984576</v>
+        <v>1.044417946082705</v>
       </c>
       <c r="F20">
-        <v>1.013191657849002</v>
+        <v>1.04829522798277</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043645693070545</v>
+        <v>1.033195769688473</v>
       </c>
       <c r="J20">
-        <v>1.013082822373022</v>
+        <v>1.03024898043749</v>
       </c>
       <c r="K20">
-        <v>1.025049047664811</v>
+        <v>1.038884121907363</v>
       </c>
       <c r="L20">
-        <v>1.020700651453351</v>
+        <v>1.04776233935939</v>
       </c>
       <c r="M20">
-        <v>1.027006447223178</v>
+        <v>1.051626369280142</v>
       </c>
       <c r="N20">
-        <v>1.008371484250793</v>
+        <v>1.014122216938844</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9797498249214434</v>
+        <v>1.02298878271081</v>
       </c>
       <c r="D21">
-        <v>1.007100122633573</v>
+        <v>1.034718710471173</v>
       </c>
       <c r="E21">
-        <v>1.00186887255608</v>
+        <v>1.043388810993515</v>
       </c>
       <c r="F21">
-        <v>1.008241750909614</v>
+        <v>1.047284185908615</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042055333342307</v>
+        <v>1.033005921763503</v>
       </c>
       <c r="J21">
-        <v>1.010119292902117</v>
+        <v>1.029669661575825</v>
       </c>
       <c r="K21">
-        <v>1.02194821807698</v>
+        <v>1.038303623582064</v>
       </c>
       <c r="L21">
-        <v>1.01681492486568</v>
+        <v>1.046941666203462</v>
       </c>
       <c r="M21">
-        <v>1.023068645194517</v>
+        <v>1.050822828836269</v>
       </c>
       <c r="N21">
-        <v>1.00738830053669</v>
+        <v>1.013930368278126</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C22">
-        <v>0.9763974514560699</v>
+        <v>1.022371664175121</v>
       </c>
       <c r="D22">
-        <v>1.004463790615118</v>
+        <v>1.034221759545174</v>
       </c>
       <c r="E22">
-        <v>0.9987226902787205</v>
+        <v>1.042742884376694</v>
       </c>
       <c r="F22">
-        <v>1.005064212282731</v>
+        <v>1.046649174746125</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041017141221999</v>
+        <v>1.03288461309395</v>
       </c>
       <c r="J22">
-        <v>1.008209711840056</v>
+        <v>1.029305040467</v>
       </c>
       <c r="K22">
-        <v>1.019947334576958</v>
+        <v>1.037937764017829</v>
       </c>
       <c r="L22">
-        <v>1.01431949346272</v>
+        <v>1.046426130375796</v>
       </c>
       <c r="M22">
-        <v>1.020536009300428</v>
+        <v>1.050317601087146</v>
       </c>
       <c r="N22">
-        <v>1.006754818586674</v>
+        <v>1.013809601634491</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9781821212974143</v>
+        <v>1.022698781987018</v>
       </c>
       <c r="D23">
-        <v>1.00586704638075</v>
+        <v>1.034485216273454</v>
       </c>
       <c r="E23">
-        <v>1.00039649838152</v>
+        <v>1.043085194531261</v>
       </c>
       <c r="F23">
-        <v>1.006755066866469</v>
+        <v>1.046985742027939</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041571205754059</v>
+        <v>1.032949105100726</v>
       </c>
       <c r="J23">
-        <v>1.009226526634546</v>
+        <v>1.029498368718148</v>
       </c>
       <c r="K23">
-        <v>1.021013025550361</v>
+        <v>1.03813179582916</v>
       </c>
       <c r="L23">
-        <v>1.015647475171644</v>
+        <v>1.046699382201565</v>
       </c>
       <c r="M23">
-        <v>1.021884142811271</v>
+        <v>1.050585432356936</v>
       </c>
       <c r="N23">
-        <v>1.007092130667341</v>
+        <v>1.013873635820266</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9850456361495467</v>
+        <v>1.023987237318895</v>
       </c>
       <c r="D24">
-        <v>1.01126810847125</v>
+        <v>1.035522109118854</v>
       </c>
       <c r="E24">
-        <v>1.00685718463166</v>
+        <v>1.04443521873541</v>
       </c>
       <c r="F24">
-        <v>1.013273576951649</v>
+        <v>1.048312189495649</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043671722454713</v>
+        <v>1.033198919506242</v>
       </c>
       <c r="J24">
-        <v>1.01313174798391</v>
+        <v>1.030258686269966</v>
       </c>
       <c r="K24">
-        <v>1.025100191497758</v>
+        <v>1.038893839075637</v>
       </c>
       <c r="L24">
-        <v>1.020764941105981</v>
+        <v>1.04777610565186</v>
       </c>
       <c r="M24">
-        <v>1.027071535570173</v>
+        <v>1.051639840470251</v>
       </c>
       <c r="N24">
-        <v>1.00838771641499</v>
+        <v>1.014125430842055</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9926978946747638</v>
+        <v>1.025483663796957</v>
       </c>
       <c r="D25">
-        <v>1.017296139465488</v>
+        <v>1.036724659782712</v>
       </c>
       <c r="E25">
-        <v>1.014106417555164</v>
+        <v>1.046006721317005</v>
       </c>
       <c r="F25">
-        <v>1.0205713477427</v>
+        <v>1.049854326138321</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045949419410566</v>
+        <v>1.033480325328398</v>
       </c>
       <c r="J25">
-        <v>1.017473527750467</v>
+        <v>1.031139300954141</v>
       </c>
       <c r="K25">
-        <v>1.029631760001321</v>
+        <v>1.039774285956119</v>
       </c>
       <c r="L25">
-        <v>1.026489626325799</v>
+        <v>1.049027515518167</v>
       </c>
       <c r="M25">
-        <v>1.032858497821346</v>
+        <v>1.052863331987181</v>
       </c>
       <c r="N25">
-        <v>1.009828242848842</v>
+        <v>1.014416986241469</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_94/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_94/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026678170106423</v>
+        <v>0.9985713361086441</v>
       </c>
       <c r="D2">
-        <v>1.037683182034894</v>
+        <v>1.021925480008397</v>
       </c>
       <c r="E2">
-        <v>1.047264022031575</v>
+        <v>1.01970573343632</v>
       </c>
       <c r="F2">
-        <v>1.051086584224076</v>
+        <v>1.026195002659235</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033697897942123</v>
+        <v>1.047644004352784</v>
       </c>
       <c r="J2">
-        <v>1.031840273906417</v>
+        <v>1.020794862396175</v>
       </c>
       <c r="K2">
-        <v>1.040473367139956</v>
+        <v>1.033087580519398</v>
       </c>
       <c r="L2">
-        <v>1.050027146429824</v>
+        <v>1.030897196218198</v>
       </c>
       <c r="M2">
-        <v>1.053839061221582</v>
+        <v>1.037301074358325</v>
       </c>
       <c r="N2">
-        <v>1.014649001050638</v>
+        <v>1.010930218177882</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027546023956109</v>
+        <v>1.002712531340409</v>
       </c>
       <c r="D3">
-        <v>1.038378760310587</v>
+        <v>1.025189836156921</v>
       </c>
       <c r="E3">
-        <v>1.048179154123589</v>
+        <v>1.023673291421519</v>
       </c>
       <c r="F3">
-        <v>1.051982591987258</v>
+        <v>1.030172156057291</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033851872131018</v>
+        <v>1.048806668755624</v>
       </c>
       <c r="J3">
-        <v>1.032348409877175</v>
+        <v>1.023129522165146</v>
       </c>
       <c r="K3">
-        <v>1.040979105975721</v>
+        <v>1.035510242454878</v>
       </c>
       <c r="L3">
-        <v>1.05075381958331</v>
+        <v>1.03401196985531</v>
       </c>
       <c r="M3">
-        <v>1.054547430280392</v>
+        <v>1.040433002119262</v>
       </c>
       <c r="N3">
-        <v>1.014817150790023</v>
+        <v>1.011704801101335</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028107824699541</v>
+        <v>1.005338066828603</v>
       </c>
       <c r="D4">
-        <v>1.038828653967148</v>
+        <v>1.027259252373581</v>
       </c>
       <c r="E4">
-        <v>1.048772324273933</v>
+        <v>1.026197615171069</v>
       </c>
       <c r="F4">
-        <v>1.052562951437551</v>
+        <v>1.032699027835501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033949646427925</v>
+        <v>1.049528566351155</v>
       </c>
       <c r="J4">
-        <v>1.032676816263043</v>
+        <v>1.024606203004877</v>
       </c>
       <c r="K4">
-        <v>1.041305486273215</v>
+        <v>1.037039447991785</v>
       </c>
       <c r="L4">
-        <v>1.051224412464149</v>
+        <v>1.03598981440602</v>
       </c>
       <c r="M4">
-        <v>1.055005739320718</v>
+        <v>1.042418194053446</v>
       </c>
       <c r="N4">
-        <v>1.014925807538744</v>
+        <v>1.012194703948414</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028344062202341</v>
+        <v>1.006429314857949</v>
       </c>
       <c r="D5">
-        <v>1.039017741621627</v>
+        <v>1.028119262038543</v>
       </c>
       <c r="E5">
-        <v>1.049021935249726</v>
+        <v>1.027248896952107</v>
       </c>
       <c r="F5">
-        <v>1.052807072344395</v>
+        <v>1.033750514803504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033990305255696</v>
+        <v>1.049824897573222</v>
       </c>
       <c r="J5">
-        <v>1.032814783458466</v>
+        <v>1.025219082842192</v>
       </c>
       <c r="K5">
-        <v>1.041442487776241</v>
+        <v>1.037673357571429</v>
       </c>
       <c r="L5">
-        <v>1.051422340939166</v>
+        <v>1.036812566253376</v>
       </c>
       <c r="M5">
-        <v>1.055198398273949</v>
+        <v>1.043243146114858</v>
       </c>
       <c r="N5">
-        <v>1.014971451159847</v>
+        <v>1.012398025278068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028383730792455</v>
+        <v>1.006611817541531</v>
       </c>
       <c r="D6">
-        <v>1.039049487428473</v>
+        <v>1.028263084617904</v>
       </c>
       <c r="E6">
-        <v>1.049063860190121</v>
+        <v>1.027424838241285</v>
       </c>
       <c r="F6">
-        <v>1.052848069350773</v>
+        <v>1.03392644004989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033997105903552</v>
+        <v>1.049874236971924</v>
       </c>
       <c r="J6">
-        <v>1.032837943163376</v>
+        <v>1.025321530102847</v>
       </c>
       <c r="K6">
-        <v>1.041465478650295</v>
+        <v>1.037779274322457</v>
       </c>
       <c r="L6">
-        <v>1.051455579311017</v>
+        <v>1.036950205445443</v>
       </c>
       <c r="M6">
-        <v>1.055230745686824</v>
+        <v>1.043381102892895</v>
       </c>
       <c r="N6">
-        <v>1.014979112821131</v>
+        <v>1.012432011415436</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028110981096348</v>
+        <v>1.005352696814677</v>
       </c>
       <c r="D7">
-        <v>1.038831180754948</v>
+        <v>1.027270782685246</v>
       </c>
       <c r="E7">
-        <v>1.048775658638148</v>
+        <v>1.026211701084222</v>
       </c>
       <c r="F7">
-        <v>1.052566212853716</v>
+        <v>1.032713119879862</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0339501914647</v>
+        <v>1.049532553889036</v>
       </c>
       <c r="J7">
-        <v>1.032678660161553</v>
+        <v>1.024614423154764</v>
       </c>
       <c r="K7">
-        <v>1.041307317716017</v>
+        <v>1.037047953266238</v>
       </c>
       <c r="L7">
-        <v>1.051227056837374</v>
+        <v>1.036000842022179</v>
       </c>
       <c r="M7">
-        <v>1.055008313696584</v>
+        <v>1.04242925454819</v>
       </c>
       <c r="N7">
-        <v>1.014926417571724</v>
+        <v>1.012197430993552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026971414646228</v>
+        <v>0.99998233450445</v>
       </c>
       <c r="D8">
-        <v>1.03791829472082</v>
+        <v>1.023037729631684</v>
       </c>
       <c r="E8">
-        <v>1.047573083368782</v>
+        <v>1.021055690513559</v>
       </c>
       <c r="F8">
-        <v>1.051389272632291</v>
+        <v>1.027548967067504</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033750318299588</v>
+        <v>1.048043311582725</v>
       </c>
       <c r="J8">
-        <v>1.032012081248352</v>
+        <v>1.021591049212655</v>
       </c>
       <c r="K8">
-        <v>1.040644462579458</v>
+        <v>1.03391442681542</v>
       </c>
       <c r="L8">
-        <v>1.050272648124637</v>
+        <v>1.031957806787105</v>
       </c>
       <c r="M8">
-        <v>1.054078467985657</v>
+        <v>1.03836826529904</v>
       </c>
       <c r="N8">
-        <v>1.014705858321318</v>
+        <v>1.011194377406368</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02496525758099</v>
+        <v>0.9900846814084431</v>
       </c>
       <c r="D9">
-        <v>1.036308275948851</v>
+        <v>1.01523702630627</v>
       </c>
       <c r="E9">
-        <v>1.045461862394896</v>
+        <v>1.011625169960308</v>
       </c>
       <c r="F9">
-        <v>1.049319888057039</v>
+        <v>1.01807555162197</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033383928597092</v>
+        <v>1.045179912489599</v>
       </c>
       <c r="J9">
-        <v>1.030834533788935</v>
+        <v>1.015992500186851</v>
       </c>
       <c r="K9">
-        <v>1.039469848418608</v>
+        <v>1.028087637552101</v>
       </c>
       <c r="L9">
-        <v>1.048593880181202</v>
+        <v>1.024532411135302</v>
       </c>
       <c r="M9">
-        <v>1.052439618222598</v>
+        <v>1.030882018146732</v>
       </c>
       <c r="N9">
-        <v>1.014316093323765</v>
+        <v>1.009336856661645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023629175391414</v>
+        <v>0.983164374125049</v>
       </c>
       <c r="D10">
-        <v>1.035234089147519</v>
+        <v>1.009787069716557</v>
       </c>
       <c r="E10">
-        <v>1.044059766693781</v>
+        <v>1.005082554854821</v>
       </c>
       <c r="F10">
-        <v>1.047943444690054</v>
+        <v>1.011484366956124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033130179114347</v>
+        <v>1.043101012615008</v>
       </c>
       <c r="J10">
-        <v>1.030047583420762</v>
+        <v>1.012062252101178</v>
       </c>
       <c r="K10">
-        <v>1.038682426464901</v>
+        <v>1.023981835782895</v>
       </c>
       <c r="L10">
-        <v>1.047476813686427</v>
+        <v>1.019360644595171</v>
       </c>
       <c r="M10">
-        <v>1.051346906536454</v>
+        <v>1.025649317983175</v>
       </c>
       <c r="N10">
-        <v>1.014055525831848</v>
+        <v>1.008032890965055</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023050974127403</v>
+        <v>0.9800842695690776</v>
       </c>
       <c r="D11">
-        <v>1.034768775397666</v>
+        <v>1.007363228051145</v>
       </c>
       <c r="E11">
-        <v>1.043453940477636</v>
+        <v>1.002183231171272</v>
       </c>
       <c r="F11">
-        <v>1.047348196089476</v>
+        <v>1.008559080230241</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033018062138571</v>
+        <v>1.042158293530382</v>
       </c>
       <c r="J11">
-        <v>1.029706383559772</v>
+        <v>1.010309695309759</v>
       </c>
       <c r="K11">
-        <v>1.038340449316829</v>
+        <v>1.022147607883942</v>
       </c>
       <c r="L11">
-        <v>1.046993629222583</v>
+        <v>1.017064092064051</v>
       </c>
       <c r="M11">
-        <v>1.050873733598668</v>
+        <v>1.023321369986432</v>
       </c>
       <c r="N11">
-        <v>1.013942530264184</v>
+        <v>1.00745146640521</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022836255385384</v>
+        <v>0.9789269670798841</v>
       </c>
       <c r="D12">
-        <v>1.034595911161725</v>
+        <v>1.00645285719367</v>
       </c>
       <c r="E12">
-        <v>1.043229105075953</v>
+        <v>1.001095810225778</v>
       </c>
       <c r="F12">
-        <v>1.047127210114748</v>
+        <v>1.007461256163095</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03297608087865</v>
+        <v>1.0418015303206</v>
       </c>
       <c r="J12">
-        <v>1.029579580910678</v>
+        <v>1.009650749072082</v>
       </c>
       <c r="K12">
-        <v>1.038213272050876</v>
+        <v>1.021457466114609</v>
       </c>
       <c r="L12">
-        <v>1.046814231348283</v>
+        <v>1.016202046310996</v>
       </c>
       <c r="M12">
-        <v>1.050697974257687</v>
+        <v>1.022446892861798</v>
       </c>
       <c r="N12">
-        <v>1.013900533796892</v>
+        <v>1.007232862930266</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022882310959467</v>
+        <v>0.9791758214589034</v>
       </c>
       <c r="D13">
-        <v>1.03463299227737</v>
+        <v>1.006648596853257</v>
       </c>
       <c r="E13">
-        <v>1.043277324164379</v>
+        <v>1.001329548768088</v>
       </c>
       <c r="F13">
-        <v>1.047174607087836</v>
+        <v>1.007697260880335</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032985101194718</v>
+        <v>1.0418783591192</v>
       </c>
       <c r="J13">
-        <v>1.029606783471403</v>
+        <v>1.009792461688421</v>
       </c>
       <c r="K13">
-        <v>1.038240558852024</v>
+        <v>1.021605909320345</v>
       </c>
       <c r="L13">
-        <v>1.046852709234628</v>
+        <v>1.016387372513787</v>
       </c>
       <c r="M13">
-        <v>1.050735675294018</v>
+        <v>1.022634920752325</v>
       </c>
       <c r="N13">
-        <v>1.013909543301635</v>
+        <v>1.0072798753163</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.023033224362856</v>
+        <v>0.9799888801277249</v>
       </c>
       <c r="D14">
-        <v>1.034754486906871</v>
+        <v>1.007288184114931</v>
       </c>
       <c r="E14">
-        <v>1.043435351517537</v>
+        <v>1.002093561578131</v>
       </c>
       <c r="F14">
-        <v>1.047329926947091</v>
+        <v>1.008468566312314</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033014598804813</v>
+        <v>1.042128939142939</v>
       </c>
       <c r="J14">
-        <v>1.029695903350063</v>
+        <v>1.010255391249459</v>
       </c>
       <c r="K14">
-        <v>1.038329939892301</v>
+        <v>1.022090742776736</v>
       </c>
       <c r="L14">
-        <v>1.04697879853239</v>
+        <v>1.016993021285002</v>
       </c>
       <c r="M14">
-        <v>1.050859205306266</v>
+        <v>1.023249287430313</v>
       </c>
       <c r="N14">
-        <v>1.013939059328517</v>
+        <v>1.007433451035439</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023126213878998</v>
+        <v>0.9804880608756771</v>
       </c>
       <c r="D15">
-        <v>1.034829340362161</v>
+        <v>1.007680909926002</v>
       </c>
       <c r="E15">
-        <v>1.043532743328</v>
+        <v>1.002562889936587</v>
       </c>
       <c r="F15">
-        <v>1.047425640039061</v>
+        <v>1.008942286709356</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033032728752817</v>
+        <v>1.042282449485944</v>
       </c>
       <c r="J15">
-        <v>1.029750804357058</v>
+        <v>1.010539550763852</v>
       </c>
       <c r="K15">
-        <v>1.038384990433302</v>
+        <v>1.022388283850628</v>
       </c>
       <c r="L15">
-        <v>1.047056496731763</v>
+        <v>1.017364975405581</v>
       </c>
       <c r="M15">
-        <v>1.050935316021185</v>
+        <v>1.023626510420842</v>
       </c>
       <c r="N15">
-        <v>1.013957241840914</v>
+        <v>1.007527721246569</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023667555784402</v>
+        <v>0.9833669745735578</v>
       </c>
       <c r="D16">
-        <v>1.035264966755047</v>
+        <v>1.009946547591167</v>
       </c>
       <c r="E16">
-        <v>1.0441000007057</v>
+        <v>1.005273532485014</v>
       </c>
       <c r="F16">
-        <v>1.047982965538679</v>
+        <v>1.011676962226401</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033137572783692</v>
+        <v>1.043162664368172</v>
       </c>
       <c r="J16">
-        <v>1.030070218442661</v>
+        <v>1.012177465566638</v>
       </c>
       <c r="K16">
-        <v>1.038705101015789</v>
+        <v>1.024102349531421</v>
       </c>
       <c r="L16">
-        <v>1.047508891962862</v>
+        <v>1.019511820134407</v>
       </c>
       <c r="M16">
-        <v>1.051378309130868</v>
+        <v>1.025802470153684</v>
       </c>
       <c r="N16">
-        <v>1.014063021465512</v>
+        <v>1.008071114816422</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024007214764158</v>
+        <v>0.9851500160732916</v>
       </c>
       <c r="D17">
-        <v>1.035538175625496</v>
+        <v>1.011350294786802</v>
       </c>
       <c r="E17">
-        <v>1.04445617286385</v>
+        <v>1.006955733425432</v>
       </c>
       <c r="F17">
-        <v>1.048332765833838</v>
+        <v>1.013372905498444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033202739038348</v>
+        <v>1.043703270493794</v>
       </c>
       <c r="J17">
-        <v>1.030270460021531</v>
+        <v>1.013191065887251</v>
       </c>
       <c r="K17">
-        <v>1.038905626200298</v>
+        <v>1.02516219657795</v>
       </c>
       <c r="L17">
-        <v>1.047792805737626</v>
+        <v>1.020842892787101</v>
       </c>
       <c r="M17">
-        <v>1.051656182217829</v>
+        <v>1.027150452843844</v>
       </c>
       <c r="N17">
-        <v>1.014129329483945</v>
+        <v>1.00840739647471</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024205363970264</v>
+        <v>0.9861820179510158</v>
       </c>
       <c r="D18">
-        <v>1.035697515897386</v>
+        <v>1.012162935096538</v>
       </c>
       <c r="E18">
-        <v>1.044664046466036</v>
+        <v>1.007930569727354</v>
       </c>
       <c r="F18">
-        <v>1.048536871693628</v>
+        <v>1.014355282909046</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033240533061429</v>
+        <v>1.044014506720781</v>
       </c>
       <c r="J18">
-        <v>1.030387214525047</v>
+        <v>1.013777411337602</v>
       </c>
       <c r="K18">
-        <v>1.039022490818122</v>
+        <v>1.025774971989912</v>
       </c>
       <c r="L18">
-        <v>1.047958457218602</v>
+        <v>1.021613801073503</v>
       </c>
       <c r="M18">
-        <v>1.051818258713911</v>
+        <v>1.027930742210113</v>
       </c>
       <c r="N18">
-        <v>1.014167989582546</v>
+        <v>1.008601931027036</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024272933098003</v>
+        <v>0.9865325635754267</v>
       </c>
       <c r="D19">
-        <v>1.035751843737049</v>
+        <v>1.012438995514492</v>
       </c>
       <c r="E19">
-        <v>1.044734947047055</v>
+        <v>1.008261899631179</v>
       </c>
       <c r="F19">
-        <v>1.048606478895404</v>
+        <v>1.014689104173467</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033253383126029</v>
+        <v>1.044119942438722</v>
       </c>
       <c r="J19">
-        <v>1.030427017464288</v>
+        <v>1.013976524020921</v>
       </c>
       <c r="K19">
-        <v>1.039062321916111</v>
+        <v>1.025983004455105</v>
       </c>
       <c r="L19">
-        <v>1.048014948428176</v>
+        <v>1.02187574300171</v>
       </c>
       <c r="M19">
-        <v>1.051873522199304</v>
+        <v>1.028195801535405</v>
       </c>
       <c r="N19">
-        <v>1.014181168909906</v>
+        <v>1.008667992016307</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023970769264967</v>
+        <v>0.9849595463613267</v>
       </c>
       <c r="D20">
-        <v>1.035508864732853</v>
+        <v>1.011200324328298</v>
       </c>
       <c r="E20">
-        <v>1.044417946082705</v>
+        <v>1.006775910984577</v>
       </c>
       <c r="F20">
-        <v>1.04829522798277</v>
+        <v>1.013191657849003</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033195769688473</v>
+        <v>1.043645693070546</v>
       </c>
       <c r="J20">
-        <v>1.03024898043749</v>
+        <v>1.013082822373023</v>
       </c>
       <c r="K20">
-        <v>1.038884121907363</v>
+        <v>1.025049047664812</v>
       </c>
       <c r="L20">
-        <v>1.04776233935939</v>
+        <v>1.020700651453353</v>
       </c>
       <c r="M20">
-        <v>1.051626369280142</v>
+        <v>1.027006447223179</v>
       </c>
       <c r="N20">
-        <v>1.014122216938844</v>
+        <v>1.008371484250794</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02298878271081</v>
+        <v>0.9797498249214438</v>
       </c>
       <c r="D21">
-        <v>1.034718710471173</v>
+        <v>1.007100122633574</v>
       </c>
       <c r="E21">
-        <v>1.043388810993515</v>
+        <v>1.00186887255608</v>
       </c>
       <c r="F21">
-        <v>1.047284185908615</v>
+        <v>1.008241750909614</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033005921763503</v>
+        <v>1.042055333342307</v>
       </c>
       <c r="J21">
-        <v>1.029669661575825</v>
+        <v>1.010119292902117</v>
       </c>
       <c r="K21">
-        <v>1.038303623582064</v>
+        <v>1.021948218076981</v>
       </c>
       <c r="L21">
-        <v>1.046941666203462</v>
+        <v>1.016814924865681</v>
       </c>
       <c r="M21">
-        <v>1.050822828836269</v>
+        <v>1.023068645194518</v>
       </c>
       <c r="N21">
-        <v>1.013930368278126</v>
+        <v>1.00738830053669</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022371664175121</v>
+        <v>0.9763974514560706</v>
       </c>
       <c r="D22">
-        <v>1.034221759545174</v>
+        <v>1.004463790615118</v>
       </c>
       <c r="E22">
-        <v>1.042742884376694</v>
+        <v>0.9987226902787211</v>
       </c>
       <c r="F22">
-        <v>1.046649174746125</v>
+        <v>1.005064212282731</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03288461309395</v>
+        <v>1.041017141221999</v>
       </c>
       <c r="J22">
-        <v>1.029305040467</v>
+        <v>1.008209711840057</v>
       </c>
       <c r="K22">
-        <v>1.037937764017829</v>
+        <v>1.019947334576958</v>
       </c>
       <c r="L22">
-        <v>1.046426130375796</v>
+        <v>1.01431949346272</v>
       </c>
       <c r="M22">
-        <v>1.050317601087146</v>
+        <v>1.020536009300429</v>
       </c>
       <c r="N22">
-        <v>1.013809601634491</v>
+        <v>1.006754818586674</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022698781987018</v>
+        <v>0.9781821212974141</v>
       </c>
       <c r="D23">
-        <v>1.034485216273454</v>
+        <v>1.005867046380749</v>
       </c>
       <c r="E23">
-        <v>1.043085194531261</v>
+        <v>1.00039649838152</v>
       </c>
       <c r="F23">
-        <v>1.046985742027939</v>
+        <v>1.006755066866469</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032949105100726</v>
+        <v>1.041571205754059</v>
       </c>
       <c r="J23">
-        <v>1.029498368718148</v>
+        <v>1.009226526634546</v>
       </c>
       <c r="K23">
-        <v>1.03813179582916</v>
+        <v>1.02101302555036</v>
       </c>
       <c r="L23">
-        <v>1.046699382201565</v>
+        <v>1.015647475171644</v>
       </c>
       <c r="M23">
-        <v>1.050585432356936</v>
+        <v>1.021884142811271</v>
       </c>
       <c r="N23">
-        <v>1.013873635820266</v>
+        <v>1.007092130667341</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023987237318895</v>
+        <v>0.9850456361495471</v>
       </c>
       <c r="D24">
-        <v>1.035522109118854</v>
+        <v>1.01126810847125</v>
       </c>
       <c r="E24">
-        <v>1.04443521873541</v>
+        <v>1.00685718463166</v>
       </c>
       <c r="F24">
-        <v>1.048312189495649</v>
+        <v>1.013273576951649</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033198919506242</v>
+        <v>1.043671722454713</v>
       </c>
       <c r="J24">
-        <v>1.030258686269966</v>
+        <v>1.01313174798391</v>
       </c>
       <c r="K24">
-        <v>1.038893839075637</v>
+        <v>1.025100191497758</v>
       </c>
       <c r="L24">
-        <v>1.04777610565186</v>
+        <v>1.020764941105981</v>
       </c>
       <c r="M24">
-        <v>1.051639840470251</v>
+        <v>1.027071535570174</v>
       </c>
       <c r="N24">
-        <v>1.014125430842055</v>
+        <v>1.00838771641499</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025483663796957</v>
+        <v>0.9926978946747645</v>
       </c>
       <c r="D25">
-        <v>1.036724659782712</v>
+        <v>1.017296139465489</v>
       </c>
       <c r="E25">
-        <v>1.046006721317005</v>
+        <v>1.014106417555165</v>
       </c>
       <c r="F25">
-        <v>1.049854326138321</v>
+        <v>1.020571347742701</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033480325328398</v>
+        <v>1.045949419410566</v>
       </c>
       <c r="J25">
-        <v>1.031139300954141</v>
+        <v>1.017473527750468</v>
       </c>
       <c r="K25">
-        <v>1.039774285956119</v>
+        <v>1.029631760001321</v>
       </c>
       <c r="L25">
-        <v>1.049027515518167</v>
+        <v>1.0264896263258</v>
       </c>
       <c r="M25">
-        <v>1.052863331987181</v>
+        <v>1.032858497821347</v>
       </c>
       <c r="N25">
-        <v>1.014416986241469</v>
+        <v>1.009828242848842</v>
       </c>
     </row>
   </sheetData>
